--- a/tmp/CandidateReport.xlsx
+++ b/tmp/CandidateReport.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>2017-06-09 00:39:14</t>
+  </si>
+  <si>
+    <t>Vijay Chaudhary</t>
+  </si>
+  <si>
+    <t>ajaykiet2@gmail.com</t>
+  </si>
+  <si>
+    <t>0:20</t>
+  </si>
+  <si>
+    <t>2017-06-08 00:55:41</t>
   </si>
 </sst>
 </file>
@@ -418,7 +430,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="K2" sqref="K2"/>
@@ -507,6 +519,41 @@
       </c>
       <c r="K2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>9089899090</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
